--- a/temp_doc/DATA KELAS FIX.xlsx
+++ b/temp_doc/DATA KELAS FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B688C053-364B-424C-BCB0-79D538B39179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99149367-499B-F048-9F4E-857EAE2EDAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -228,6 +228,177 @@
   </si>
   <si>
     <t>10282526</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>XAKL1</t>
+  </si>
+  <si>
+    <t>XAKL2</t>
+  </si>
+  <si>
+    <t>XPM</t>
+  </si>
+  <si>
+    <t>XMPLB1</t>
+  </si>
+  <si>
+    <t>XMPLB2</t>
+  </si>
+  <si>
+    <t>XTJKT1</t>
+  </si>
+  <si>
+    <t>XTJKT2</t>
+  </si>
+  <si>
+    <t>XTJKT3</t>
+  </si>
+  <si>
+    <t>XTJKT4</t>
+  </si>
+  <si>
+    <t>XDKV</t>
+  </si>
+  <si>
+    <t>XIAKL1</t>
+  </si>
+  <si>
+    <t>XIAKL2</t>
+  </si>
+  <si>
+    <t>XIPM</t>
+  </si>
+  <si>
+    <t>XIMPLB1</t>
+  </si>
+  <si>
+    <t>XIMPLB2</t>
+  </si>
+  <si>
+    <t>XITJKT1</t>
+  </si>
+  <si>
+    <t>XITJKT2</t>
+  </si>
+  <si>
+    <t>XITJKT3</t>
+  </si>
+  <si>
+    <t>XIDKV</t>
+  </si>
+  <si>
+    <t>XIIAKL1</t>
+  </si>
+  <si>
+    <t>XIIAKL2</t>
+  </si>
+  <si>
+    <t>XIIPM</t>
+  </si>
+  <si>
+    <t>XIIMPLB1</t>
+  </si>
+  <si>
+    <t>XIIMPLB2</t>
+  </si>
+  <si>
+    <t>XIITJKT1</t>
+  </si>
+  <si>
+    <t>XIITJKT2</t>
+  </si>
+  <si>
+    <t>XIITJKT3</t>
+  </si>
+  <si>
+    <t>XIIDKV</t>
+  </si>
+  <si>
+    <t>xakl12526</t>
+  </si>
+  <si>
+    <t>xakl22526</t>
+  </si>
+  <si>
+    <t>xpm2526</t>
+  </si>
+  <si>
+    <t>xmplb12526</t>
+  </si>
+  <si>
+    <t>xmplb22526</t>
+  </si>
+  <si>
+    <t>xtjkt12526</t>
+  </si>
+  <si>
+    <t>xtjkt22526</t>
+  </si>
+  <si>
+    <t>xtjkt32526</t>
+  </si>
+  <si>
+    <t>xtjkt42526</t>
+  </si>
+  <si>
+    <t>xdkv2526</t>
+  </si>
+  <si>
+    <t>xiakl12526</t>
+  </si>
+  <si>
+    <t>xiakl22526</t>
+  </si>
+  <si>
+    <t>xipm2526</t>
+  </si>
+  <si>
+    <t>ximplb12526</t>
+  </si>
+  <si>
+    <t>ximplb22526</t>
+  </si>
+  <si>
+    <t>xitjkt12526</t>
+  </si>
+  <si>
+    <t>xitjkt22526</t>
+  </si>
+  <si>
+    <t>xitjkt32526</t>
+  </si>
+  <si>
+    <t>xidkv2526</t>
+  </si>
+  <si>
+    <t>xiiakl12526</t>
+  </si>
+  <si>
+    <t>xiiakl22526</t>
+  </si>
+  <si>
+    <t>xiipm2526</t>
+  </si>
+  <si>
+    <t>xiimplb12526</t>
+  </si>
+  <si>
+    <t>xiimplb22526</t>
+  </si>
+  <si>
+    <t>xiitjkt12526</t>
+  </si>
+  <si>
+    <t>xiitjkt22526</t>
+  </si>
+  <si>
+    <t>xiitjkt32526</t>
+  </si>
+  <si>
+    <t>xiidkv2526</t>
   </si>
 </sst>
 </file>
@@ -594,15 +765,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664577AF-41FC-0C49-BD7B-86162BAED619}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +783,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -623,8 +797,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -634,8 +811,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -645,8 +825,11 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -656,8 +839,11 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -667,8 +853,11 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -678,8 +867,11 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -689,8 +881,11 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -700,8 +895,11 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -711,8 +909,11 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -722,8 +923,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -733,8 +937,11 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -744,8 +951,11 @@
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -755,8 +965,11 @@
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -766,8 +979,11 @@
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -777,8 +993,11 @@
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -788,8 +1007,11 @@
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -799,8 +1021,11 @@
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -810,8 +1035,11 @@
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -821,8 +1049,11 @@
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -832,8 +1063,11 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -843,8 +1077,11 @@
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -854,8 +1091,11 @@
       <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -865,8 +1105,11 @@
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -876,8 +1119,11 @@
       <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -887,8 +1133,11 @@
       <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -898,8 +1147,11 @@
       <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -909,8 +1161,11 @@
       <c r="C28" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -920,8 +1175,11 @@
       <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
     </row>
   </sheetData>
@@ -932,57 +1190,264 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B619F6-725B-5A47-866E-C5048BC3F4F7}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="B1" sqref="B1:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CONCATENATE(LOWER(A1),2526)</f>
+        <v>xakl12526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B28" si="0">CONCATENATE(LOWER(A2),2526)</f>
+        <v>xakl22526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>xpm2526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>xmplb12526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>xmplb22526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>xtjkt12526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>xtjkt22526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>xtjkt32526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>xtjkt42526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>xdkv2526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>xiakl12526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>xiakl22526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>xipm2526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>ximplb12526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>ximplb22526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>xitjkt12526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>xitjkt22526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>xitjkt32526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>xidkv2526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>xiiakl12526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>xiiakl22526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>xiipm2526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>xiimplb12526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>xiimplb22526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>xiitjkt12526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>xiitjkt22526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>xiitjkt32526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>xiidkv2526</v>
       </c>
     </row>
   </sheetData>
